--- a/reports/_COMPAGINE MARITIME DAFFRETMENT_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_6_.xlsx
+++ b/reports/_COMPAGINE MARITIME DAFFRETMENT_ISPAHANI SUMMIT ALLIANCE TERMINALS LIMITED_container_report_2018-12-27_6_.xlsx
@@ -5085,7 +5085,7 @@
         </is>
       </c>
       <c r="P39" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>1</v>
@@ -5259,7 +5259,7 @@
         </is>
       </c>
       <c r="P41" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q41" s="0" t="n">
         <v>1</v>
